--- a/Technical project/Memmory/TIR_VAN_presupuesto.xlsx
+++ b/Technical project/Memmory/TIR_VAN_presupuesto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t xml:space="preserve"> Resistencia metálica SMD 0805 1k 10  </t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>DIAGRAMA DE GANTT</t>
+  </si>
+  <si>
+    <t>Coste Equipos Instalación media</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;???\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +281,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +347,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -375,21 +408,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -804,20 +822,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,10 +846,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -837,66 +864,57 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="9" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="15" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="14" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -905,65 +923,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="10" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="21" xfId="9" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="22" xfId="9" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="23" xfId="9" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="24" xfId="9" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -971,35 +982,55 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="13" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="21" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="23" xfId="12" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="14">
     <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="9" builtinId="34"/>
+    <cellStyle name="20% - Énfasis3" xfId="12" builtinId="38"/>
     <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
     <cellStyle name="40% - Énfasis2" xfId="10" builtinId="35"/>
+    <cellStyle name="40% - Énfasis3" xfId="13" builtinId="39"/>
     <cellStyle name="60% - Énfasis1" xfId="7" builtinId="32"/>
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Énfasis2" xfId="8" builtinId="33"/>
+    <cellStyle name="Énfasis3" xfId="11" builtinId="37"/>
     <cellStyle name="Entrada" xfId="6" builtinId="20"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,31 +1335,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="H1" t="s">
         <v>34</v>
       </c>
@@ -1343,21 +1376,21 @@
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1371,37 +1404,36 @@
         <f>D3*C3</f>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="39">
-        <f>1200</f>
+      <c r="I3" s="36">
         <v>1200</v>
       </c>
-      <c r="J3" s="40">
-        <f>SUM($I$12:$I$14)*12</f>
-        <v>4417.2000000000007</v>
-      </c>
-      <c r="K3" s="40">
-        <f t="shared" ref="K3:M3" si="0">SUM($I$12:$I$14)*12</f>
-        <v>4417.2000000000007</v>
-      </c>
-      <c r="L3" s="41">
+      <c r="J3" s="37">
+        <f>SUM($I$12:$I$14)*12 + $L$12 + $L$13</f>
+        <v>4523.6000000000004</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:L3" si="0">SUM($I$12:$I$14)*12 + $L$12 + $L$13</f>
+        <v>4523.6000000000004</v>
+      </c>
+      <c r="L3" s="37">
         <f t="shared" si="0"/>
-        <v>4417.2000000000007</v>
-      </c>
-      <c r="O3" s="22" t="s">
+        <v>4523.6000000000004</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="24">
         <f>NPV(I6,J4:L4)+I4</f>
-        <v>637.11495116453762</v>
+        <v>9771.4546817274568</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1415,34 +1447,37 @@
         <f t="shared" ref="E4:E42" si="1">D4*C4</f>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="38">
         <f>-I3</f>
         <v>-1200</v>
       </c>
-      <c r="J4" s="42">
-        <v>2000</v>
-      </c>
-      <c r="K4" s="42">
-        <v>2</v>
-      </c>
-      <c r="L4" s="43">
-        <v>23</v>
-      </c>
-      <c r="O4" s="23" t="s">
+      <c r="J4" s="73">
+        <f>12000-J3</f>
+        <v>7476.4</v>
+      </c>
+      <c r="K4" s="73">
+        <f>8000-K3</f>
+        <v>3476.3999999999996</v>
+      </c>
+      <c r="L4" s="73">
+        <f>5000-L3</f>
+        <v>476.39999999999964</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <f>IRR(I4:L4)</f>
-        <v>0.6744976040530748</v>
+        <v>5.6733619416668821</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1456,13 +1491,13 @@
         <f t="shared" si="1"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1476,20 +1511,20 @@
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1503,9 +1538,9 @@
         <f t="shared" si="1"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1585,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1564,12 +1599,16 @@
         <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="58"/>
+      <c r="K11" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="75"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1583,38 +1622,50 @@
         <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="36">
-        <v>286.10000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="33">
+        <v>283.3</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="78">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="34">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="35">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1625,51 +1676,51 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="H16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E17" s="15"/>
       <c r="H17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="H18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1732,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1747,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1762,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1726,7 +1777,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1792,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1807,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1822,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1837,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1852,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1867,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1831,7 +1882,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1846,7 +1897,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1912,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +1927,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1942,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1957,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>20</v>
       </c>
@@ -1921,32 +1972,32 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -1957,10 +2008,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1971,414 +2023,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-    </row>
-    <row r="3" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="55" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61"/>
+    </row>
+    <row r="3" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="54"/>
-    </row>
-    <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56"/>
-      <c r="D4" s="45" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="72"/>
+    </row>
+    <row r="4" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="63"/>
+      <c r="D4" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="50" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="44" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="50" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="44" t="s">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="57"/>
-      <c r="D5" s="58">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="66"/>
+    </row>
+    <row r="5" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="64"/>
+      <c r="D5" s="39">
         <v>40</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="40">
         <v>41</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="40">
         <v>42</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="40">
         <v>43</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="40">
         <v>44</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="40">
         <v>45</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="40">
         <v>46</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="40">
         <v>47</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="40">
         <v>48</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="40">
         <v>49</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="40">
         <v>50</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="40">
         <v>51</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="40">
         <v>52</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="40">
         <v>53</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="40">
         <v>54</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="40">
         <v>55</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="40">
         <v>56</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="40">
         <v>57</v>
       </c>
-      <c r="V5" s="59">
+      <c r="V5" s="40">
         <v>58</v>
       </c>
-      <c r="W5" s="60">
+      <c r="W5" s="41">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="63" t="s">
+    <row r="6" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
-    </row>
-    <row r="7" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="64" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43"/>
+    </row>
+    <row r="7" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="73"/>
-    </row>
-    <row r="8" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="63" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="73"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="73"/>
-    </row>
-    <row r="10" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="63" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="73"/>
-    </row>
-    <row r="11" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="64" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="73"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
-    </row>
-    <row r="13" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="64" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="73"/>
-    </row>
-    <row r="14" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="63" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73"/>
-    </row>
-    <row r="15" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="65" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="69"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2403,7 +2455,7 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Technical project/Memmory/TIR_VAN_presupuesto.xlsx
+++ b/Technical project/Memmory/TIR_VAN_presupuesto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t xml:space="preserve"> Resistencia metálica SMD 0805 1k 10  </t>
   </si>
@@ -93,9 +93,6 @@
     <t>Flujo de caja</t>
   </si>
   <si>
-    <t>COK</t>
-  </si>
-  <si>
     <t>PERIODO 0</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>A continuación el 30% de la cuota hasta los dos siguientes años</t>
   </si>
   <si>
-    <t>COSTE DE OPORTUNIDAD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fase 1: Analisis de la situación.</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>OCT</t>
   </si>
   <si>
-    <t>FEB</t>
-  </si>
-  <si>
     <t>DIAGRAMA DE GANTT</t>
   </si>
   <si>
@@ -211,6 +202,12 @@
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>COK (coste de oportunidad)</t>
+  </si>
+  <si>
+    <t>SEPT</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -818,6 +815,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -940,7 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="4" applyBorder="1"/>
@@ -955,70 +962,71 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="13" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="12" borderId="21" xfId="12" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="12" borderId="23" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
@@ -1335,35 +1343,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,19 +1386,19 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1413,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="36">
         <v>1200</v>
@@ -1423,17 +1431,17 @@
         <v>4523.6000000000004</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="24">
         <f>NPV(I6,J4:L4)+I4</f>
-        <v>9771.4546817274568</v>
+        <v>4237.4740992031848</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1454,30 +1462,30 @@
         <f>-I3</f>
         <v>-1200</v>
       </c>
-      <c r="J4" s="73">
-        <f>12000-J3</f>
-        <v>7476.4</v>
-      </c>
-      <c r="K4" s="73">
+      <c r="J4" s="55">
+        <f>6300-J3</f>
+        <v>1776.3999999999996</v>
+      </c>
+      <c r="K4" s="55">
         <f>8000-K3</f>
         <v>3476.3999999999996</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="55">
         <f>5000-L3</f>
         <v>476.39999999999964</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="25">
         <f>IRR(I4:L4)</f>
-        <v>5.6733619416668821</v>
+        <v>1.6363298534750594</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1505,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1512,19 +1520,17 @@
         <v>1.6E-2</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I6" s="26">
         <v>0.03</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="J6" s="28"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1546,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1599,16 +1605,16 @@
         <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="K11" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="K11" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="64"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1623,49 +1629,49 @@
         <v>1.52</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="33">
         <v>283.3</v>
       </c>
-      <c r="K12" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="78">
+      <c r="K12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="58">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
       <c r="H13" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="34">
         <v>29</v>
       </c>
-      <c r="K13" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="79">
+      <c r="K13" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="59">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="H14" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="35">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1676,51 +1682,51 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E17" s="15"/>
       <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E18" s="15"/>
       <c r="H18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+    <row r="25" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B25" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1738,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>20</v>
       </c>
@@ -1972,32 +1978,32 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -2023,414 +2029,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="61"/>
-    </row>
-    <row r="3" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="62" t="s">
+      <c r="C2" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+    </row>
+    <row r="3" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="78"/>
+    </row>
+    <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="69"/>
+      <c r="D4" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="72"/>
-    </row>
-    <row r="4" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="63"/>
-      <c r="D4" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
-    </row>
-    <row r="5" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="64"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="72"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="70"/>
       <c r="D5" s="39">
+        <v>38</v>
+      </c>
+      <c r="E5" s="39">
+        <v>39</v>
+      </c>
+      <c r="F5" s="39">
         <v>40</v>
       </c>
-      <c r="E5" s="40">
+      <c r="G5" s="40">
         <v>41</v>
       </c>
-      <c r="F5" s="40">
+      <c r="H5" s="40">
         <v>42</v>
       </c>
-      <c r="G5" s="40">
+      <c r="I5" s="40">
         <v>43</v>
       </c>
-      <c r="H5" s="40">
+      <c r="J5" s="40">
         <v>44</v>
       </c>
-      <c r="I5" s="40">
+      <c r="K5" s="40">
         <v>45</v>
       </c>
-      <c r="J5" s="40">
+      <c r="L5" s="40">
         <v>46</v>
       </c>
-      <c r="K5" s="40">
+      <c r="M5" s="40">
         <v>47</v>
       </c>
-      <c r="L5" s="40">
+      <c r="N5" s="40">
         <v>48</v>
       </c>
-      <c r="M5" s="40">
+      <c r="O5" s="40">
         <v>49</v>
       </c>
-      <c r="N5" s="40">
+      <c r="P5" s="40">
         <v>50</v>
       </c>
-      <c r="O5" s="40">
+      <c r="Q5" s="40">
         <v>51</v>
       </c>
-      <c r="P5" s="40">
+      <c r="R5" s="40">
         <v>52</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="S5" s="40">
         <v>53</v>
       </c>
-      <c r="R5" s="40">
-        <v>54</v>
-      </c>
-      <c r="S5" s="40">
-        <v>55</v>
-      </c>
-      <c r="T5" s="40">
-        <v>56</v>
-      </c>
-      <c r="U5" s="40">
-        <v>57</v>
-      </c>
-      <c r="V5" s="40">
-        <v>58</v>
-      </c>
-      <c r="W5" s="41">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="44" t="s">
+      <c r="T5" s="79">
+        <v>1</v>
+      </c>
+      <c r="U5" s="79">
+        <v>2</v>
+      </c>
+      <c r="V5" s="79">
+        <v>3</v>
+      </c>
+      <c r="W5" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="42"/>
+    </row>
+    <row r="7" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="53"/>
+    </row>
+    <row r="8" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="43"/>
-    </row>
-    <row r="7" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="53"/>
+    </row>
+    <row r="9" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="54"/>
-    </row>
-    <row r="8" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="44" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="53"/>
+    </row>
+    <row r="10" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="54"/>
-    </row>
-    <row r="9" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="45" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="53"/>
+    </row>
+    <row r="11" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="54"/>
-    </row>
-    <row r="10" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="44" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="53"/>
+    </row>
+    <row r="12" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="54"/>
-    </row>
-    <row r="11" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="45" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+    </row>
+    <row r="13" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="54"/>
-    </row>
-    <row r="12" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="44" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="53"/>
+    </row>
+    <row r="14" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
-    </row>
-    <row r="13" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="45" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+    </row>
+    <row r="15" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-    </row>
-    <row r="14" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-    </row>
-    <row r="15" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2455,7 +2462,7 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
